--- a/n of 1/Others n of 1/MAF Others/2018-07-17_SVW-Increasing-Speeds/VW_Pace Plus VO2Max test 20180713.xlsx
+++ b/n of 1/Others n of 1/MAF Others/2018-07-17_SVW-Increasing-Speeds/VW_Pace Plus VO2Max test 20180713.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="-15" windowWidth="13755" windowHeight="11430" tabRatio="836" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="10935" yWindow="-15" windowWidth="13755" windowHeight="11430" tabRatio="836" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="VO2max" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>SVW VO2max</t>
   </si>
@@ -233,6 +233,13 @@
     <t>CHO-Ox 
 [kCal/hr]</t>
   </si>
+  <si>
+    <t>Deficit-CHO [kCal/hr]</t>
+  </si>
+  <si>
+    <t>Eat-CHO
+[kCal/hr]</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -373,6 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,11 +684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78707712"/>
-        <c:axId val="78906112"/>
+        <c:axId val="119037312"/>
+        <c:axId val="119063680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78707712"/>
+        <c:axId val="119037312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,12 +697,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78906112"/>
+        <c:crossAx val="119063680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78906112"/>
+        <c:axId val="119063680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78707712"/>
+        <c:crossAx val="119037312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -756,6 +764,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -972,8 +981,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137782784"/>
-        <c:axId val="137784704"/>
+        <c:axId val="127339136"/>
+        <c:axId val="127361792"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1085,11 +1094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137821568"/>
-        <c:axId val="137819648"/>
+        <c:axId val="127374080"/>
+        <c:axId val="127363712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137782784"/>
+        <c:axId val="127339136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1112,18 +1121,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137784704"/>
+        <c:crossAx val="127361792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137784704"/>
+        <c:axId val="127361792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,18 +1156,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137782784"/>
+        <c:crossAx val="127339136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137819648"/>
+        <c:axId val="127363712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,18 +1190,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137821568"/>
+        <c:crossAx val="127374080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137821568"/>
+        <c:axId val="127374080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,13 +1212,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137819648"/>
+        <c:crossAx val="127363712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1619,11 +1632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78953088"/>
-        <c:axId val="78963072"/>
+        <c:axId val="116562944"/>
+        <c:axId val="116577024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78953088"/>
+        <c:axId val="116562944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -1678,12 +1691,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78963072"/>
+        <c:crossAx val="116577024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78963072"/>
+        <c:axId val="116577024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78953088"/>
+        <c:crossAx val="116562944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1821,7 +1834,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1854,7 +1866,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2054,11 +2065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79046144"/>
-        <c:axId val="79047680"/>
+        <c:axId val="119457664"/>
+        <c:axId val="119459200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79046144"/>
+        <c:axId val="119457664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,12 +2079,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79047680"/>
+        <c:crossAx val="119459200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79047680"/>
+        <c:axId val="119459200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,14 +2095,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79046144"/>
+        <c:crossAx val="119457664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2141,7 +2151,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2384,11 +2393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79097856"/>
-        <c:axId val="79099392"/>
+        <c:axId val="126321024"/>
+        <c:axId val="126322560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79097856"/>
+        <c:axId val="126321024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2402,12 +2411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79099392"/>
+        <c:crossAx val="126322560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79099392"/>
+        <c:axId val="126322560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -2420,7 +2429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79097856"/>
+        <c:crossAx val="126321024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2483,7 +2492,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3239,11 +3247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79292672"/>
-        <c:axId val="79298944"/>
+        <c:axId val="126128896"/>
+        <c:axId val="126130816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79292672"/>
+        <c:axId val="126128896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -3284,7 +3292,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3310,12 +3317,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79298944"/>
+        <c:crossAx val="126130816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79298944"/>
+        <c:axId val="126130816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3367,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3386,7 +3392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79292672"/>
+        <c:crossAx val="126128896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3401,7 +3407,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3878,11 +3883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116144384"/>
-        <c:axId val="116224384"/>
+        <c:axId val="126211200"/>
+        <c:axId val="126213120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116144384"/>
+        <c:axId val="126211200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3935,12 +3940,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116224384"/>
+        <c:crossAx val="126213120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116224384"/>
+        <c:axId val="126213120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -4003,7 +4008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116144384"/>
+        <c:crossAx val="126211200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4855,11 +4860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119777152"/>
-        <c:axId val="130023424"/>
+        <c:axId val="126278272"/>
+        <c:axId val="126878464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119777152"/>
+        <c:axId val="126278272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4930,12 +4935,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130023424"/>
+        <c:crossAx val="126878464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130023424"/>
+        <c:axId val="126878464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,7 +5010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119777152"/>
+        <c:crossAx val="126278272"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5749,11 +5754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="132127744"/>
-        <c:axId val="132158208"/>
+        <c:axId val="126439424"/>
+        <c:axId val="126440960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="132127744"/>
+        <c:axId val="126439424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -5765,12 +5770,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132158208"/>
+        <c:crossAx val="126440960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132158208"/>
+        <c:axId val="126440960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5782,7 +5787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132127744"/>
+        <c:crossAx val="126439424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5834,6 +5839,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5958,11 +5964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137714304"/>
-        <c:axId val="137716096"/>
+        <c:axId val="127291392"/>
+        <c:axId val="127292928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137714304"/>
+        <c:axId val="127291392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="110"/>
@@ -5973,12 +5979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137716096"/>
+        <c:crossAx val="127292928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137716096"/>
+        <c:axId val="127292928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -5991,13 +5997,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137714304"/>
+        <c:crossAx val="127291392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13643,7 +13650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -16157,21 +16164,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -16190,181 +16199,195 @@
       <c r="F1" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B2" s="11">
-        <v>7.36</v>
+        <v>5.07</v>
       </c>
       <c r="C2" s="11">
-        <v>13.880512511999997</v>
+        <v>13.973584319999997</v>
       </c>
       <c r="D2" s="11">
-        <v>0.57835468799999989</v>
+        <v>6.8825116799999986</v>
       </c>
       <c r="E2" s="25">
-        <f>C2*60</f>
-        <v>832.83075071999986</v>
+        <f t="shared" ref="E2:E7" si="0">C2*60</f>
+        <v>838.41505919999986</v>
       </c>
       <c r="F2" s="25">
-        <f>D2*60</f>
-        <v>34.701281279999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>122</v>
-      </c>
-      <c r="B3" s="11">
-        <v>7.04</v>
+        <f t="shared" ref="F2:F7" si="1">D2*60</f>
+        <v>412.95070079999994</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G7" si="2">90*4</f>
+        <v>360</v>
+      </c>
+      <c r="H2" s="25">
+        <f>F2-G2</f>
+        <v>52.950700799999936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>AVERAGE(A2,A4)</f>
+        <v>145</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:H3" si="3">AVERAGE(B2,B4)</f>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C3" s="11">
-        <v>16.416154656</v>
+        <f t="shared" si="3"/>
+        <v>14.289596927999998</v>
       </c>
       <c r="D3" s="11">
-        <v>0.16581974399999999</v>
+        <f t="shared" si="3"/>
+        <v>8.516086271999999</v>
       </c>
       <c r="E3" s="25">
-        <f t="shared" ref="E3:E9" si="0">C3*60</f>
-        <v>984.96927935999997</v>
+        <f t="shared" si="3"/>
+        <v>857.37581567999996</v>
       </c>
       <c r="F3" s="25">
-        <f t="shared" ref="F3:F9" si="1">D3*60</f>
-        <v>9.9491846399999986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>510.96517631999996</v>
+      </c>
+      <c r="G3" s="27">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="H3" s="25">
+        <f t="shared" si="3"/>
+        <v>150.96517631999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B4" s="11">
-        <v>5.62</v>
+        <v>4.47</v>
       </c>
       <c r="C4" s="11">
-        <v>17.819328383999995</v>
+        <v>14.605609535999999</v>
       </c>
       <c r="D4" s="11">
-        <v>1.5495068159999996</v>
+        <v>10.149660863999999</v>
       </c>
       <c r="E4" s="25">
         <f t="shared" si="0"/>
-        <v>1069.1597030399996</v>
+        <v>876.33657215999995</v>
       </c>
       <c r="F4" s="25">
         <f t="shared" si="1"/>
-        <v>92.970408959999972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>608.97965183999997</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="H4" s="25">
+        <f t="shared" ref="H4:H7" si="4">F4-G4</f>
+        <v>248.97965183999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B5" s="11">
-        <v>5.07</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C5" s="11">
-        <v>13.973584319999997</v>
+        <v>11.974631759999999</v>
       </c>
       <c r="D5" s="11">
-        <v>6.8825116799999986</v>
+        <v>12.463392239999997</v>
       </c>
       <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>838.41505919999986</v>
+        <v>718.47790559999999</v>
       </c>
       <c r="F5" s="25">
         <f t="shared" si="1"/>
-        <v>412.95070079999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747.80353439999988</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="H5" s="25">
+        <f t="shared" si="4"/>
+        <v>387.80353439999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B6" s="11">
-        <v>4.47</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="C6" s="11">
-        <v>14.605609535999999</v>
+        <v>9.1464422399999989</v>
       </c>
       <c r="D6" s="11">
-        <v>10.149660863999999</v>
+        <v>21.341698559999994</v>
       </c>
       <c r="E6" s="25">
         <f t="shared" si="0"/>
-        <v>876.33657215999995</v>
+        <v>548.78653439999994</v>
       </c>
       <c r="F6" s="25">
         <f t="shared" si="1"/>
-        <v>608.97965183999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1280.5019135999996</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="4"/>
+        <v>920.50191359999963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B7" s="11">
-        <v>4.4400000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C7" s="11">
-        <v>11.974631759999999</v>
+        <v>8.6750052479999997</v>
       </c>
       <c r="D7" s="11">
-        <v>12.463392239999997</v>
+        <v>22.307156351999996</v>
       </c>
       <c r="E7" s="25">
         <f t="shared" si="0"/>
-        <v>718.47790559999999</v>
+        <v>520.50031488000002</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" si="1"/>
-        <v>747.80353439999988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>163</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="C8" s="11">
-        <v>9.1464422399999989</v>
-      </c>
-      <c r="D8" s="11">
-        <v>21.341698559999994</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>548.78653439999994</v>
-      </c>
-      <c r="F8" s="25">
-        <f t="shared" si="1"/>
-        <v>1280.5019135999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>169</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C9" s="11">
-        <v>8.6750052479999997</v>
-      </c>
-      <c r="D9" s="11">
-        <v>22.307156351999996</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>520.50031488000002</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="1"/>
         <v>1338.4293811199998</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="4"/>
+        <v>978.42938111999979</v>
       </c>
     </row>
   </sheetData>
